--- a/data-raw/GBD_2021_Data_Tools_Guide/IHME_GBD_2021_A1_HIERARCHIES_Y2024M05D15.XLSX
+++ b/data-raw/GBD_2021_Data_Tools_Guide/IHME_GBD_2021_A1_HIERARCHIES_Y2024M05D15.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dump_\Documents\R-REPOS\lemur\data-raw\GBD_2021_Data_Tools_Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B4AD5-755A-433F-94B4-9FCC2CBABD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BDC263-F1A1-4431-92ED-A04B806B4AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GBD 2021 Locations Hierarchy" sheetId="4" r:id="rId1"/>
@@ -7183,11 +7183,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C523" sqref="C523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,7 +7261,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1188</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1188</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1188</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1188</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1188</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1188</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1188</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1188</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1188</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1188</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1188</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1188</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1188</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1188</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1188</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1188</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1188</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1188</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1188</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1188</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1188</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1188</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1188</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1188</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1188</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1188</v>
       </c>
@@ -8971,7 +8972,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1188</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1188</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1188</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1188</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1188</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1188</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1188</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1188</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1188</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1188</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1188</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1188</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1188</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1188</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1188</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1188</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1188</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1188</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1188</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1188</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1188</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1188</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1188</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1188</v>
       </c>
@@ -9667,7 +9668,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1188</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1188</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1188</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1188</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1188</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1188</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1188</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1188</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1188</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1188</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1188</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1188</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1188</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1188</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1188</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1188</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1188</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1188</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1188</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1188</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1188</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1188</v>
       </c>
@@ -10450,7 +10451,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1188</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1188</v>
       </c>
@@ -10508,7 +10509,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1188</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1188</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1188</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1188</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1188</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1188</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1188</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1188</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1188</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1188</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1188</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1188</v>
       </c>
@@ -10856,7 +10857,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1188</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1188</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1188</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1188</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1188</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1188</v>
       </c>
@@ -11030,7 +11031,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1188</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1188</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1188</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1188</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1188</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1188</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1188</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1188</v>
       </c>
@@ -11262,7 +11263,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1188</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1188</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1188</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1188</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1188</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1188</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1188</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1188</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1188</v>
       </c>
@@ -11987,7 +11988,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1188</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1188</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1188</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1188</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1188</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1188</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1188</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1188</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1188</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1188</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1188</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1188</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1188</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1188</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1188</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1188</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1188</v>
       </c>
@@ -12480,7 +12481,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1188</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1188</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1188</v>
       </c>
@@ -12567,7 +12568,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1188</v>
       </c>
@@ -12596,7 +12597,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1188</v>
       </c>
@@ -12625,7 +12626,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1188</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1188</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1188</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1188</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1188</v>
       </c>
@@ -12915,7 +12916,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1188</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1188</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1188</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1188</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1188</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1188</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1188</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1188</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1188</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1188</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1188</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1188</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1188</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1188</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1188</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1188</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1188</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1188</v>
       </c>
@@ -13611,7 +13612,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1188</v>
       </c>
@@ -13640,7 +13641,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1188</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1188</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1188</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1188</v>
       </c>
@@ -13756,7 +13757,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1188</v>
       </c>
@@ -13785,7 +13786,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1188</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1188</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1188</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1188</v>
       </c>
@@ -13901,7 +13902,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1188</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1188</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1188</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1188</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1188</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1188</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1188</v>
       </c>
@@ -14104,7 +14105,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1188</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1188</v>
       </c>
@@ -14162,7 +14163,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1188</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1188</v>
       </c>
@@ -14220,7 +14221,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1188</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1188</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1188</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1188</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1188</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1188</v>
       </c>
@@ -14394,7 +14395,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1188</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1188</v>
       </c>
@@ -14452,7 +14453,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1188</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1188</v>
       </c>
@@ -14510,7 +14511,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1188</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1188</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1188</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1188</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1188</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1188</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1188</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1188</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1188</v>
       </c>
@@ -14771,7 +14772,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1188</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1188</v>
       </c>
@@ -14829,7 +14830,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1188</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1188</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1188</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1188</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1188</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1188</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1188</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1188</v>
       </c>
@@ -15061,7 +15062,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1188</v>
       </c>
@@ -15090,7 +15091,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1188</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1188</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1188</v>
       </c>
@@ -15177,7 +15178,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1188</v>
       </c>
@@ -15206,7 +15207,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1188</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1188</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1188</v>
       </c>
@@ -15293,7 +15294,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1188</v>
       </c>
@@ -15322,7 +15323,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1188</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1188</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1188</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1188</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1188</v>
       </c>
@@ -15467,7 +15468,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1188</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1188</v>
       </c>
@@ -15525,7 +15526,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1188</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1188</v>
       </c>
@@ -15583,7 +15584,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1188</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1188</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1188</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1188</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1188</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1188</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1188</v>
       </c>
@@ -15786,7 +15787,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1188</v>
       </c>
@@ -15815,7 +15816,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1188</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1188</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1188</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1188</v>
       </c>
@@ -15931,7 +15932,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1188</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1188</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1188</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1188</v>
       </c>
@@ -16047,7 +16048,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1188</v>
       </c>
@@ -16076,7 +16077,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1188</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1188</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1188</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1188</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1188</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1188</v>
       </c>
@@ -16250,7 +16251,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1188</v>
       </c>
@@ -16279,7 +16280,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1188</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1188</v>
       </c>
@@ -16337,7 +16338,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1188</v>
       </c>
@@ -16366,7 +16367,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1188</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1188</v>
       </c>
@@ -16424,7 +16425,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1188</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1188</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1188</v>
       </c>
@@ -16511,7 +16512,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1188</v>
       </c>
@@ -16540,7 +16541,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1188</v>
       </c>
@@ -16569,7 +16570,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1188</v>
       </c>
@@ -16598,7 +16599,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1188</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1188</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1188</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1188</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1188</v>
       </c>
@@ -16743,7 +16744,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1188</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1188</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1188</v>
       </c>
@@ -16830,7 +16831,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1188</v>
       </c>
@@ -16859,7 +16860,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1188</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1188</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1188</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1188</v>
       </c>
@@ -16975,7 +16976,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1188</v>
       </c>
@@ -17004,7 +17005,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1188</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1188</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1188</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1188</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1188</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1188</v>
       </c>
@@ -17178,7 +17179,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1188</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1188</v>
       </c>
@@ -17236,7 +17237,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1188</v>
       </c>
@@ -17265,7 +17266,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1188</v>
       </c>
@@ -17294,7 +17295,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1188</v>
       </c>
@@ -17323,7 +17324,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1188</v>
       </c>
@@ -17352,7 +17353,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1188</v>
       </c>
@@ -17381,7 +17382,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1188</v>
       </c>
@@ -17410,7 +17411,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1188</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1188</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1188</v>
       </c>
@@ -17497,7 +17498,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1188</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1188</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1188</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1188</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1188</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1188</v>
       </c>
@@ -17671,7 +17672,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1188</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1188</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1188</v>
       </c>
@@ -17758,7 +17759,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1188</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1188</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1188</v>
       </c>
@@ -17845,7 +17846,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1188</v>
       </c>
@@ -17874,7 +17875,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1188</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1188</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1188</v>
       </c>
@@ -17961,7 +17962,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1188</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1188</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1188</v>
       </c>
@@ -18048,7 +18049,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1188</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1188</v>
       </c>
@@ -18106,7 +18107,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1188</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1188</v>
       </c>
@@ -18164,7 +18165,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1188</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1188</v>
       </c>
@@ -18860,7 +18861,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1188</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1188</v>
       </c>
@@ -19092,7 +19093,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1188</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1188</v>
       </c>
@@ -19150,7 +19151,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1188</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1188</v>
       </c>
@@ -19208,7 +19209,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1188</v>
       </c>
@@ -19237,7 +19238,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1188</v>
       </c>
@@ -19266,7 +19267,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1188</v>
       </c>
@@ -19295,7 +19296,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1188</v>
       </c>
@@ -19324,7 +19325,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1188</v>
       </c>
@@ -19353,7 +19354,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1188</v>
       </c>
@@ -19382,7 +19383,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1188</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1188</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1188</v>
       </c>
@@ -19469,7 +19470,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1188</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1188</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1188</v>
       </c>
@@ -19556,7 +19557,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1188</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1188</v>
       </c>
@@ -19614,7 +19615,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1188</v>
       </c>
@@ -19643,7 +19644,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1188</v>
       </c>
@@ -19672,7 +19673,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1188</v>
       </c>
@@ -19701,7 +19702,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1188</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1188</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1188</v>
       </c>
@@ -19788,7 +19789,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1188</v>
       </c>
@@ -19817,7 +19818,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1188</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1188</v>
       </c>
@@ -19875,7 +19876,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1188</v>
       </c>
@@ -19904,7 +19905,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1188</v>
       </c>
@@ -19933,7 +19934,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1188</v>
       </c>
@@ -19962,7 +19963,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1188</v>
       </c>
@@ -20078,7 +20079,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1188</v>
       </c>
@@ -20136,7 +20137,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1188</v>
       </c>
@@ -20165,7 +20166,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1188</v>
       </c>
@@ -20194,7 +20195,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1188</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1188</v>
       </c>
@@ -20252,7 +20253,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1188</v>
       </c>
@@ -20281,7 +20282,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1188</v>
       </c>
@@ -20310,7 +20311,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1188</v>
       </c>
@@ -20339,7 +20340,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1188</v>
       </c>
@@ -20368,7 +20369,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1188</v>
       </c>
@@ -20397,7 +20398,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1188</v>
       </c>
@@ -20426,7 +20427,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1188</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1188</v>
       </c>
@@ -20484,7 +20485,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>1188</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1188</v>
       </c>
@@ -20542,7 +20543,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1188</v>
       </c>
@@ -20571,7 +20572,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>1188</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>1188</v>
       </c>
@@ -20629,7 +20630,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>1188</v>
       </c>
@@ -20658,7 +20659,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1188</v>
       </c>
@@ -20687,7 +20688,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1188</v>
       </c>
@@ -20716,7 +20717,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>1188</v>
       </c>
@@ -20745,7 +20746,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>1188</v>
       </c>
@@ -20774,7 +20775,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>1188</v>
       </c>
@@ -20803,7 +20804,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1188</v>
       </c>
@@ -20832,7 +20833,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>1188</v>
       </c>
@@ -20861,7 +20862,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1188</v>
       </c>
@@ -20890,7 +20891,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1188</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>1188</v>
       </c>
@@ -20948,7 +20949,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1188</v>
       </c>
@@ -20977,7 +20978,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>1188</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1188</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1188</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1188</v>
       </c>
@@ -21122,7 +21123,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1188</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>1188</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>1188</v>
       </c>
@@ -21354,7 +21355,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>1188</v>
       </c>
@@ -21383,7 +21384,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>1188</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>1188</v>
       </c>
@@ -21441,7 +21442,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>1188</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>1188</v>
       </c>
@@ -21499,7 +21500,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>1188</v>
       </c>
@@ -21528,7 +21529,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>1188</v>
       </c>
@@ -21557,7 +21558,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>1188</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1188</v>
       </c>
@@ -21615,7 +21616,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>1188</v>
       </c>
@@ -21644,7 +21645,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>1188</v>
       </c>
@@ -21673,7 +21674,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>1188</v>
       </c>
@@ -21702,7 +21703,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>1188</v>
       </c>
@@ -21731,7 +21732,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1188</v>
       </c>
@@ -21760,7 +21761,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>1188</v>
       </c>
@@ -21789,7 +21790,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1188</v>
       </c>
@@ -21818,7 +21819,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>1188</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1188</v>
       </c>
@@ -21876,7 +21877,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1188</v>
       </c>
@@ -21905,7 +21906,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1188</v>
       </c>
@@ -21934,7 +21935,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1188</v>
       </c>
@@ -21963,7 +21964,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>1188</v>
       </c>
@@ -21992,7 +21993,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>1188</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>1188</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>1188</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1188</v>
       </c>
@@ -22108,7 +22109,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1188</v>
       </c>
@@ -22137,7 +22138,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>1188</v>
       </c>
@@ -22166,7 +22167,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>1188</v>
       </c>
@@ -22659,7 +22660,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1188</v>
       </c>
@@ -22688,7 +22689,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>1188</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>1188</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1188</v>
       </c>
@@ -22920,7 +22921,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1188</v>
       </c>
@@ -22949,7 +22950,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>1188</v>
       </c>
@@ -22978,7 +22979,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>1188</v>
       </c>
@@ -23007,7 +23008,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1188</v>
       </c>
@@ -23036,7 +23037,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>1188</v>
       </c>
@@ -23065,7 +23066,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>1188</v>
       </c>
@@ -23094,7 +23095,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>1188</v>
       </c>
@@ -23210,7 +23211,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1188</v>
       </c>
@@ -23761,7 +23762,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>1188</v>
       </c>
@@ -23848,7 +23849,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>1188</v>
       </c>
@@ -23877,7 +23878,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>1188</v>
       </c>
@@ -23906,7 +23907,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>1188</v>
       </c>
@@ -23935,7 +23936,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>1188</v>
       </c>
@@ -23964,7 +23965,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1188</v>
       </c>
@@ -23993,7 +23994,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1188</v>
       </c>
@@ -24022,7 +24023,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1188</v>
       </c>
@@ -24051,7 +24052,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1188</v>
       </c>
@@ -24080,7 +24081,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1188</v>
       </c>
@@ -24109,7 +24110,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>1188</v>
       </c>
@@ -24138,7 +24139,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>1188</v>
       </c>
@@ -24167,7 +24168,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1188</v>
       </c>
@@ -24196,7 +24197,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1188</v>
       </c>
@@ -24225,7 +24226,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>1188</v>
       </c>
@@ -24254,7 +24255,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>1188</v>
       </c>
@@ -24283,7 +24284,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>1188</v>
       </c>
@@ -24312,7 +24313,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1188</v>
       </c>
@@ -24341,7 +24342,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1188</v>
       </c>
@@ -24370,7 +24371,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1188</v>
       </c>
@@ -24399,7 +24400,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>1188</v>
       </c>
@@ -24428,7 +24429,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1188</v>
       </c>
@@ -24457,7 +24458,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1188</v>
       </c>
@@ -24486,7 +24487,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1188</v>
       </c>
@@ -24515,7 +24516,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1188</v>
       </c>
@@ -24544,7 +24545,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1188</v>
       </c>
@@ -24573,7 +24574,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1188</v>
       </c>
@@ -24602,7 +24603,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1188</v>
       </c>
@@ -24631,7 +24632,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1188</v>
       </c>
@@ -24660,7 +24661,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1188</v>
       </c>
@@ -24689,7 +24690,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1188</v>
       </c>
@@ -24718,7 +24719,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1188</v>
       </c>
@@ -24747,7 +24748,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>1188</v>
       </c>
@@ -24776,7 +24777,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1188</v>
       </c>
@@ -24805,7 +24806,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1188</v>
       </c>
@@ -25008,7 +25009,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1188</v>
       </c>
@@ -25037,7 +25038,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>1188</v>
       </c>
@@ -25066,7 +25067,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1188</v>
       </c>
@@ -25095,7 +25096,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1188</v>
       </c>
@@ -25124,7 +25125,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>1188</v>
       </c>
@@ -25153,7 +25154,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1188</v>
       </c>
@@ -25182,7 +25183,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>1188</v>
       </c>
@@ -25211,7 +25212,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>1188</v>
       </c>
@@ -25240,7 +25241,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>1188</v>
       </c>
@@ -25269,7 +25270,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>1188</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>1188</v>
       </c>
@@ -25327,7 +25328,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>1188</v>
       </c>
@@ -25356,7 +25357,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>1188</v>
       </c>
@@ -25385,7 +25386,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>1188</v>
       </c>
@@ -25414,7 +25415,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1188</v>
       </c>
@@ -25443,7 +25444,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>1188</v>
       </c>
@@ -25472,7 +25473,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>1188</v>
       </c>
@@ -25501,7 +25502,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>1188</v>
       </c>
@@ -25530,7 +25531,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>1188</v>
       </c>
@@ -25559,7 +25560,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>1188</v>
       </c>
@@ -25588,7 +25589,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>1188</v>
       </c>
@@ -25617,7 +25618,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>1188</v>
       </c>
@@ -25646,7 +25647,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>1188</v>
       </c>
@@ -25675,7 +25676,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>1188</v>
       </c>
@@ -25704,7 +25705,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1188</v>
       </c>
@@ -25733,7 +25734,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1188</v>
       </c>
@@ -25762,7 +25763,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1188</v>
       </c>
@@ -25791,7 +25792,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1188</v>
       </c>
@@ -25820,7 +25821,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>1188</v>
       </c>
@@ -25849,7 +25850,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>1188</v>
       </c>
@@ -25878,7 +25879,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>1188</v>
       </c>
@@ -25907,7 +25908,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1188</v>
       </c>
@@ -25936,7 +25937,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1188</v>
       </c>
@@ -25965,7 +25966,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1188</v>
       </c>
@@ -25994,7 +25995,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>1188</v>
       </c>
@@ -26023,7 +26024,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>1188</v>
       </c>
@@ -26052,7 +26053,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>1188</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1188</v>
       </c>
@@ -26110,7 +26111,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1188</v>
       </c>
@@ -26139,7 +26140,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>1188</v>
       </c>
@@ -26168,7 +26169,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1188</v>
       </c>
@@ -26197,7 +26198,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1188</v>
       </c>
@@ -26226,7 +26227,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>1188</v>
       </c>
@@ -26255,7 +26256,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1188</v>
       </c>
@@ -26284,7 +26285,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1188</v>
       </c>
@@ -26313,7 +26314,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>1188</v>
       </c>
@@ -26342,7 +26343,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1188</v>
       </c>
@@ -26371,7 +26372,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>1188</v>
       </c>
@@ -26400,7 +26401,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1188</v>
       </c>
@@ -26429,7 +26430,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1188</v>
       </c>
@@ -26458,7 +26459,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1188</v>
       </c>
@@ -26487,7 +26488,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>1188</v>
       </c>
@@ -26516,7 +26517,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>1188</v>
       </c>
@@ -26545,7 +26546,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>1188</v>
       </c>
@@ -26574,7 +26575,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1188</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>1188</v>
       </c>
@@ -26632,7 +26633,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>1188</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>1188</v>
       </c>
@@ -26690,7 +26691,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>1188</v>
       </c>
@@ -26719,7 +26720,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>1188</v>
       </c>
@@ -26748,7 +26749,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>1188</v>
       </c>
@@ -26777,7 +26778,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>1188</v>
       </c>
@@ -26806,7 +26807,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>1188</v>
       </c>
@@ -26835,7 +26836,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>1188</v>
       </c>
@@ -26864,7 +26865,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>1188</v>
       </c>
@@ -26893,7 +26894,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>1188</v>
       </c>
@@ -26922,7 +26923,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>1188</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>1188</v>
       </c>
@@ -26980,7 +26981,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>1188</v>
       </c>
@@ -27009,7 +27010,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>1188</v>
       </c>
@@ -27038,7 +27039,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>1188</v>
       </c>
@@ -27067,7 +27068,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>1188</v>
       </c>
@@ -27096,7 +27097,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1188</v>
       </c>
@@ -27125,7 +27126,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>1188</v>
       </c>
@@ -27154,7 +27155,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1188</v>
       </c>
@@ -27183,7 +27184,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1188</v>
       </c>
@@ -27212,7 +27213,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1188</v>
       </c>
@@ -27241,7 +27242,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>1188</v>
       </c>
@@ -27270,7 +27271,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>1188</v>
       </c>
@@ -27299,7 +27300,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1188</v>
       </c>
@@ -27328,7 +27329,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>1188</v>
       </c>
@@ -27357,7 +27358,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>1188</v>
       </c>
@@ -27531,7 +27532,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>1188</v>
       </c>
@@ -27560,7 +27561,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1188</v>
       </c>
@@ -27763,7 +27764,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>1188</v>
       </c>
@@ -27937,7 +27938,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1188</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>1188</v>
       </c>
@@ -27995,7 +27996,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1188</v>
       </c>
@@ -28024,7 +28025,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1188</v>
       </c>
@@ -28053,7 +28054,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1188</v>
       </c>
@@ -28082,7 +28083,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1188</v>
       </c>
@@ -28111,7 +28112,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1188</v>
       </c>
@@ -28140,7 +28141,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>1188</v>
       </c>
@@ -28169,7 +28170,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1188</v>
       </c>
@@ -28198,7 +28199,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>1188</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1188</v>
       </c>
@@ -28285,7 +28286,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1188</v>
       </c>
@@ -28314,7 +28315,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>1188</v>
       </c>
@@ -28343,7 +28344,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1188</v>
       </c>
@@ -28372,7 +28373,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1188</v>
       </c>
@@ -28401,7 +28402,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1188</v>
       </c>
@@ -28430,7 +28431,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1188</v>
       </c>
@@ -28459,7 +28460,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>1188</v>
       </c>
@@ -28488,7 +28489,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>1188</v>
       </c>
@@ -28517,7 +28518,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>1188</v>
       </c>
@@ -28546,7 +28547,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1188</v>
       </c>
@@ -28575,7 +28576,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1188</v>
       </c>
@@ -28604,7 +28605,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>1188</v>
       </c>
@@ -28633,7 +28634,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1188</v>
       </c>
@@ -28662,7 +28663,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1188</v>
       </c>
@@ -28691,7 +28692,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>1188</v>
       </c>
@@ -28720,7 +28721,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1188</v>
       </c>
@@ -28749,7 +28750,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1188</v>
       </c>
@@ -28778,7 +28779,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1188</v>
       </c>
@@ -28807,7 +28808,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1188</v>
       </c>
@@ -28836,7 +28837,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1188</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1188</v>
       </c>
@@ -28894,7 +28895,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1188</v>
       </c>
@@ -28923,7 +28924,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>1188</v>
       </c>
@@ -28952,7 +28953,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>1188</v>
       </c>
@@ -28981,7 +28982,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>1188</v>
       </c>
@@ -29010,7 +29011,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>1188</v>
       </c>
@@ -29039,7 +29040,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>1188</v>
       </c>
@@ -29068,7 +29069,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>1188</v>
       </c>
@@ -29097,7 +29098,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>1188</v>
       </c>
@@ -29126,7 +29127,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>1188</v>
       </c>
@@ -29155,7 +29156,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>1188</v>
       </c>
@@ -29184,7 +29185,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>1188</v>
       </c>
@@ -29213,7 +29214,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>1188</v>
       </c>
@@ -29242,7 +29243,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>1188</v>
       </c>
@@ -29271,7 +29272,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>1188</v>
       </c>
@@ -29300,7 +29301,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>1188</v>
       </c>
@@ -29329,7 +29330,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>1188</v>
       </c>
@@ -29358,7 +29359,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>1188</v>
       </c>
@@ -29387,7 +29388,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1188</v>
       </c>
@@ -29416,7 +29417,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>1188</v>
       </c>
@@ -29445,7 +29446,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1188</v>
       </c>
@@ -29474,7 +29475,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1188</v>
       </c>
@@ -29503,7 +29504,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1188</v>
       </c>
@@ -29532,7 +29533,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1188</v>
       </c>
@@ -29561,7 +29562,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1188</v>
       </c>
@@ -29590,7 +29591,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>1188</v>
       </c>
@@ -29619,7 +29620,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>1188</v>
       </c>
@@ -29909,7 +29910,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>1188</v>
       </c>
@@ -30083,7 +30084,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1188</v>
       </c>
@@ -30112,7 +30113,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1188</v>
       </c>
@@ -30141,7 +30142,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>1188</v>
       </c>
@@ -30170,7 +30171,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>1188</v>
       </c>
@@ -30199,7 +30200,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>1188</v>
       </c>
@@ -30228,7 +30229,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1188</v>
       </c>
@@ -30257,7 +30258,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1188</v>
       </c>
@@ -30286,7 +30287,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1188</v>
       </c>
@@ -30315,7 +30316,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1188</v>
       </c>
@@ -30373,7 +30374,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1188</v>
       </c>
@@ -34782,6 +34783,13 @@
       <c r="G1985" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I834" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -74615,9 +74623,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74800,7 +74808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>298</v>
       </c>
@@ -74965,7 +74973,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>393</v>
       </c>
@@ -75418,7 +75426,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>322</v>
       </c>
@@ -75455,7 +75463,7 @@
       <c r="P23" s="7"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>328</v>
       </c>
@@ -75492,7 +75500,7 @@
       <c r="P24" s="7"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>329</v>
       </c>
@@ -75529,7 +75537,7 @@
       <c r="P25" s="7"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1048</v>
       </c>
@@ -75614,7 +75622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>302</v>
       </c>
@@ -75651,7 +75659,7 @@
       <c r="P28" s="9"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>958</v>
       </c>
@@ -75760,7 +75768,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>959</v>
       </c>
@@ -75797,7 +75805,7 @@
       <c r="P32" s="9"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>321</v>
       </c>
@@ -75923,7 +75931,7 @@
       </c>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>346</v>
       </c>
@@ -75960,7 +75968,7 @@
       <c r="P36" s="9"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>347</v>
       </c>
@@ -76072,7 +76080,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>350</v>
       </c>
@@ -76109,7 +76117,7 @@
       <c r="P40" s="9"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>351</v>
       </c>
@@ -76146,7 +76154,7 @@
       <c r="P41" s="9"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>352</v>
       </c>
@@ -76183,7 +76191,7 @@
       <c r="P42" s="9"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>353</v>
       </c>
@@ -76220,7 +76228,7 @@
       <c r="P43" s="9"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>354</v>
       </c>
@@ -76260,7 +76268,7 @@
       <c r="P44" s="9"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>355</v>
       </c>
@@ -76300,7 +76308,7 @@
       <c r="P45" s="9"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>356</v>
       </c>
@@ -76340,7 +76348,7 @@
       <c r="P46" s="9"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>357</v>
       </c>
@@ -76377,7 +76385,7 @@
       <c r="P47" s="9"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>358</v>
       </c>
@@ -76414,7 +76422,7 @@
       <c r="P48" s="9"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>359</v>
       </c>
@@ -76451,7 +76459,7 @@
       <c r="P49" s="9"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>360</v>
       </c>
@@ -76602,7 +76610,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>364</v>
       </c>
@@ -76642,7 +76650,7 @@
       <c r="P54" s="9"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>405</v>
       </c>
@@ -76682,7 +76690,7 @@
       <c r="P55" s="9"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>843</v>
       </c>
@@ -76719,7 +76727,7 @@
       <c r="P56" s="9"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>935</v>
       </c>
@@ -76756,7 +76764,7 @@
       <c r="P57" s="9"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>936</v>
       </c>
@@ -76796,7 +76804,7 @@
       <c r="P58" s="9"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>365</v>
       </c>
@@ -76877,7 +76885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>332</v>
       </c>
@@ -76914,7 +76922,7 @@
       <c r="P61" s="9"/>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>337</v>
       </c>
@@ -76951,7 +76959,7 @@
       <c r="P62" s="9"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>338</v>
       </c>
@@ -76988,7 +76996,7 @@
       <c r="P63" s="9"/>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>339</v>
       </c>
@@ -77025,7 +77033,7 @@
       <c r="P64" s="9"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>340</v>
       </c>
@@ -77062,7 +77070,7 @@
       <c r="P65" s="9"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>341</v>
       </c>
@@ -77099,7 +77107,7 @@
       <c r="P66" s="9"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>342</v>
       </c>
@@ -77136,7 +77144,7 @@
       <c r="P67" s="9"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>400</v>
       </c>
@@ -77317,7 +77325,7 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>408</v>
       </c>
@@ -77354,7 +77362,7 @@
       <c r="P73" s="9"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>962</v>
       </c>
@@ -78073,7 +78081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>387</v>
       </c>
@@ -78110,7 +78118,7 @@
       <c r="P93" s="9"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>388</v>
       </c>
@@ -78150,7 +78158,7 @@
       <c r="P94" s="9"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>389</v>
       </c>
@@ -78190,7 +78198,7 @@
       <c r="P95" s="9"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>390</v>
       </c>
@@ -78230,7 +78238,7 @@
       <c r="P96" s="9"/>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>391</v>
       </c>
@@ -78349,7 +78357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>444</v>
       </c>
@@ -78386,7 +78394,7 @@
       <c r="P100" s="9"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>447</v>
       </c>
@@ -78423,7 +78431,7 @@
       <c r="P101" s="9"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>450</v>
       </c>
@@ -78460,7 +78468,7 @@
       <c r="P102" s="9"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>411</v>
       </c>
@@ -78497,7 +78505,7 @@
       <c r="P103" s="9"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>414</v>
       </c>
@@ -78534,7 +78542,7 @@
       <c r="P104" s="9"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>441</v>
       </c>
@@ -78573,7 +78581,7 @@
       <c r="P105" s="7"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>417</v>
       </c>
@@ -78826,7 +78834,7 @@
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
     </row>
-    <row r="113" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>453</v>
       </c>
@@ -78863,7 +78871,7 @@
       <c r="P113" s="9"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>456</v>
       </c>
@@ -78900,7 +78908,7 @@
       <c r="P114" s="9"/>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>423</v>
       </c>
@@ -78937,7 +78945,7 @@
       <c r="P115" s="9"/>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>426</v>
       </c>
@@ -78976,7 +78984,7 @@
       <c r="P116" s="7"/>
       <c r="Q116"/>
     </row>
-    <row r="117" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>459</v>
       </c>
@@ -79013,7 +79021,7 @@
       <c r="P117" s="9"/>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>462</v>
       </c>
@@ -79125,7 +79133,7 @@
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
     </row>
-    <row r="121" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>1011</v>
       </c>
@@ -79162,7 +79170,7 @@
       <c r="P121" s="9"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>1012</v>
       </c>
@@ -79199,7 +79207,7 @@
       <c r="P122" s="9"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>429</v>
       </c>
@@ -79236,7 +79244,7 @@
       <c r="P123" s="9"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>432</v>
       </c>
@@ -79273,7 +79281,7 @@
       <c r="P124" s="9"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>435</v>
       </c>
@@ -79310,7 +79318,7 @@
       <c r="P125" s="9"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>465</v>
       </c>
@@ -79347,7 +79355,7 @@
       <c r="P126" s="9"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>438</v>
       </c>
@@ -79384,7 +79392,7 @@
       <c r="P127" s="9"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>468</v>
       </c>
@@ -79421,7 +79429,7 @@
       <c r="P128" s="9"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>471</v>
       </c>
@@ -79458,7 +79466,7 @@
       <c r="P129" s="9"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>474</v>
       </c>
@@ -79495,7 +79503,7 @@
       <c r="P130" s="9"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>477</v>
       </c>
@@ -79532,7 +79540,7 @@
       <c r="P131" s="9"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>1008</v>
       </c>
@@ -79641,7 +79649,7 @@
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
     </row>
-    <row r="135" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>1013</v>
       </c>
@@ -79678,7 +79686,7 @@
       <c r="P135" s="9"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>480</v>
       </c>
@@ -79715,7 +79723,7 @@
       <c r="P136" s="9"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>483</v>
       </c>
@@ -79752,7 +79760,7 @@
       <c r="P137" s="9"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>484</v>
       </c>
@@ -79789,7 +79797,7 @@
       <c r="P138" s="9"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>485</v>
       </c>
@@ -79898,7 +79906,7 @@
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
     </row>
-    <row r="142" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>486</v>
       </c>
@@ -79935,7 +79943,7 @@
       <c r="P142" s="9"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>487</v>
       </c>
@@ -80152,7 +80160,7 @@
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
     </row>
-    <row r="149" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>489</v>
       </c>
@@ -80189,7 +80197,7 @@
       <c r="P149" s="9"/>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>490</v>
       </c>
@@ -80422,7 +80430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>492</v>
       </c>
@@ -80459,7 +80467,7 @@
       <c r="P156" s="9"/>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>493</v>
       </c>
@@ -80498,7 +80506,7 @@
       <c r="P157" s="7"/>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>494</v>
       </c>
@@ -80645,7 +80653,7 @@
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
     </row>
-    <row r="162" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>498</v>
       </c>
@@ -80682,7 +80690,7 @@
       <c r="P162" s="9"/>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>504</v>
       </c>
@@ -80827,7 +80835,7 @@
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
     </row>
-    <row r="167" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>499</v>
       </c>
@@ -80972,7 +80980,7 @@
       <c r="O170" s="9"/>
       <c r="P170" s="9"/>
     </row>
-    <row r="171" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>1004</v>
       </c>
@@ -81009,7 +81017,7 @@
       <c r="P171" s="9"/>
       <c r="Q171"/>
     </row>
-    <row r="172" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>500</v>
       </c>
@@ -81046,7 +81054,7 @@
       <c r="P172" s="9"/>
       <c r="Q172"/>
     </row>
-    <row r="173" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>501</v>
       </c>
@@ -81086,7 +81094,7 @@
       <c r="P173" s="9"/>
       <c r="Q173"/>
     </row>
-    <row r="174" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>502</v>
       </c>
@@ -81123,7 +81131,7 @@
       <c r="P174" s="9"/>
       <c r="Q174"/>
     </row>
-    <row r="175" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>503</v>
       </c>
@@ -81160,7 +81168,7 @@
       <c r="P175" s="9"/>
       <c r="Q175"/>
     </row>
-    <row r="176" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>507</v>
       </c>
@@ -81243,7 +81251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>509</v>
       </c>
@@ -81280,7 +81288,7 @@
       <c r="P178" s="9"/>
       <c r="Q178"/>
     </row>
-    <row r="179" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>510</v>
       </c>
@@ -81461,7 +81469,7 @@
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>515</v>
       </c>
@@ -81498,7 +81506,7 @@
       <c r="P184" s="9"/>
       <c r="Q184"/>
     </row>
-    <row r="185" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>516</v>
       </c>
@@ -81535,7 +81543,7 @@
       <c r="P185" s="9"/>
       <c r="Q185"/>
     </row>
-    <row r="186" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>520</v>
       </c>
@@ -81616,7 +81624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>521</v>
       </c>
@@ -81833,7 +81841,7 @@
       <c r="O193" s="9"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>992</v>
       </c>
@@ -81981,7 +81989,7 @@
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
     </row>
-    <row r="198" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>529</v>
       </c>
@@ -82018,7 +82026,7 @@
       <c r="P198" s="9"/>
       <c r="Q198"/>
     </row>
-    <row r="199" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>530</v>
       </c>
@@ -82055,7 +82063,7 @@
       <c r="P199" s="9"/>
       <c r="Q199"/>
     </row>
-    <row r="200" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>531</v>
       </c>
@@ -82092,7 +82100,7 @@
       <c r="P200" s="9"/>
       <c r="Q200"/>
     </row>
-    <row r="201" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>532</v>
       </c>
@@ -82129,7 +82137,7 @@
       <c r="P201" s="9"/>
       <c r="Q201"/>
     </row>
-    <row r="202" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>533</v>
       </c>
@@ -82166,7 +82174,7 @@
       <c r="P202" s="9"/>
       <c r="Q202"/>
     </row>
-    <row r="203" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>534</v>
       </c>
@@ -82203,7 +82211,7 @@
       <c r="P203" s="9"/>
       <c r="Q203"/>
     </row>
-    <row r="204" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>535</v>
       </c>
@@ -82240,7 +82248,7 @@
       <c r="P204" s="9"/>
       <c r="Q204"/>
     </row>
-    <row r="205" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>541</v>
       </c>
@@ -82321,7 +82329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>543</v>
       </c>
@@ -82358,7 +82366,7 @@
       <c r="P207" s="9"/>
       <c r="Q207"/>
     </row>
-    <row r="208" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>544</v>
       </c>
@@ -82395,7 +82403,7 @@
       <c r="P208" s="9"/>
       <c r="Q208"/>
     </row>
-    <row r="209" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>545</v>
       </c>
@@ -82432,7 +82440,7 @@
       <c r="P209" s="9"/>
       <c r="Q209"/>
     </row>
-    <row r="210" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>546</v>
       </c>
@@ -82469,7 +82477,7 @@
       <c r="P210" s="9"/>
       <c r="Q210"/>
     </row>
-    <row r="211" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>554</v>
       </c>
@@ -82506,7 +82514,7 @@
       <c r="P211" s="9"/>
       <c r="Q211"/>
     </row>
-    <row r="212" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>972</v>
       </c>
@@ -82624,7 +82632,7 @@
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
     </row>
-    <row r="215" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>557</v>
       </c>
@@ -82705,7 +82713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>559</v>
       </c>
@@ -82745,7 +82753,7 @@
       <c r="P217" s="9"/>
       <c r="Q217"/>
     </row>
-    <row r="218" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>567</v>
       </c>
@@ -82863,7 +82871,7 @@
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
     </row>
-    <row r="221" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>570</v>
       </c>
@@ -82903,7 +82911,7 @@
       <c r="P221" s="9"/>
       <c r="Q221"/>
     </row>
-    <row r="222" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>571</v>
       </c>
@@ -82943,7 +82951,7 @@
       <c r="P222" s="9"/>
       <c r="Q222"/>
     </row>
-    <row r="223" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>572</v>
       </c>
@@ -83055,7 +83063,7 @@
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
     </row>
-    <row r="226" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>575</v>
       </c>
@@ -83095,7 +83103,7 @@
       <c r="P226" s="9"/>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>578</v>
       </c>
@@ -83135,7 +83143,7 @@
       <c r="P227" s="9"/>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>579</v>
       </c>
@@ -83175,7 +83183,7 @@
       <c r="P228" s="9"/>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>582</v>
       </c>
@@ -83215,7 +83223,7 @@
       <c r="P229" s="9"/>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>585</v>
       </c>
@@ -83299,7 +83307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>560</v>
       </c>
@@ -83336,7 +83344,7 @@
       <c r="P232" s="9"/>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>561</v>
       </c>
@@ -83715,7 +83723,7 @@
       <c r="O242" s="9"/>
       <c r="P242" s="9"/>
     </row>
-    <row r="243" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>589</v>
       </c>
@@ -83932,7 +83940,7 @@
       <c r="O248" s="9"/>
       <c r="P248" s="9"/>
     </row>
-    <row r="249" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>588</v>
       </c>
@@ -84013,7 +84021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>654</v>
       </c>
@@ -84170,7 +84178,7 @@
       <c r="O254" s="9"/>
       <c r="P254" s="9"/>
     </row>
-    <row r="255" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>655</v>
       </c>
@@ -84210,7 +84218,7 @@
       <c r="P255" s="9"/>
       <c r="Q255"/>
     </row>
-    <row r="256" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>980</v>
       </c>
@@ -84319,7 +84327,7 @@
       <c r="O258" s="9"/>
       <c r="P258" s="9"/>
     </row>
-    <row r="259" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>658</v>
       </c>
@@ -84359,7 +84367,7 @@
       <c r="P259" s="9"/>
       <c r="Q259"/>
     </row>
-    <row r="260" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>659</v>
       </c>
@@ -84399,7 +84407,7 @@
       <c r="P260" s="9"/>
       <c r="Q260"/>
     </row>
-    <row r="261" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>660</v>
       </c>
@@ -84439,7 +84447,7 @@
       <c r="P261" s="9"/>
       <c r="Q261"/>
     </row>
-    <row r="262" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>661</v>
       </c>
@@ -84479,7 +84487,7 @@
       <c r="P262" s="9"/>
       <c r="Q262"/>
     </row>
-    <row r="263" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>662</v>
       </c>
@@ -84519,7 +84527,7 @@
       <c r="P263" s="9"/>
       <c r="Q263"/>
     </row>
-    <row r="264" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>663</v>
       </c>
@@ -84559,7 +84567,7 @@
       <c r="P264" s="9"/>
       <c r="Q264"/>
     </row>
-    <row r="265" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>664</v>
       </c>
@@ -84599,7 +84607,7 @@
       <c r="P265" s="9"/>
       <c r="Q265"/>
     </row>
-    <row r="266" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>665</v>
       </c>
@@ -84636,7 +84644,7 @@
       <c r="P266" s="9"/>
       <c r="Q266"/>
     </row>
-    <row r="267" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>668</v>
       </c>
@@ -84719,7 +84727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>981</v>
       </c>
@@ -84993,7 +85001,7 @@
       <c r="O275" s="9"/>
       <c r="P275" s="9"/>
     </row>
-    <row r="276" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>674</v>
       </c>
@@ -85033,7 +85041,7 @@
       <c r="P276" s="9"/>
       <c r="Q276"/>
     </row>
-    <row r="277" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>679</v>
       </c>
@@ -85117,7 +85125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>627</v>
       </c>
@@ -85154,7 +85162,7 @@
       <c r="P279" s="9"/>
       <c r="Q279"/>
     </row>
-    <row r="280" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>628</v>
       </c>
@@ -85350,7 +85358,7 @@
       <c r="O284" s="9"/>
       <c r="P284" s="9"/>
     </row>
-    <row r="285" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>630</v>
       </c>
@@ -85390,7 +85398,7 @@
       <c r="P285" s="9"/>
       <c r="Q285"/>
     </row>
-    <row r="286" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>631</v>
       </c>
@@ -85430,7 +85438,7 @@
       <c r="P286" s="9"/>
       <c r="Q286"/>
     </row>
-    <row r="287" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>632</v>
       </c>
@@ -85470,7 +85478,7 @@
       <c r="P287" s="9"/>
       <c r="Q287"/>
     </row>
-    <row r="288" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>639</v>
       </c>
@@ -85551,7 +85559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>641</v>
       </c>
@@ -85990,7 +85998,7 @@
       <c r="O301" s="9"/>
       <c r="P301" s="9"/>
     </row>
-    <row r="302" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>594</v>
       </c>
@@ -86213,7 +86221,7 @@
       <c r="O307" s="9"/>
       <c r="P307" s="9"/>
     </row>
-    <row r="308" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>603</v>
       </c>
@@ -86511,7 +86519,7 @@
       <c r="O315" s="9"/>
       <c r="P315" s="9"/>
     </row>
-    <row r="316" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>613</v>
       </c>
@@ -86809,7 +86817,7 @@
       <c r="O323" s="9"/>
       <c r="P323" s="9"/>
     </row>
-    <row r="324" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>619</v>
       </c>
@@ -86846,7 +86854,7 @@
       <c r="P324" s="9"/>
       <c r="Q324"/>
     </row>
-    <row r="325" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>680</v>
       </c>
@@ -87081,7 +87089,7 @@
       <c r="O330" s="9"/>
       <c r="P330" s="9"/>
     </row>
-    <row r="331" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>686</v>
       </c>
@@ -87203,7 +87211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>689</v>
       </c>
@@ -87420,7 +87428,7 @@
       <c r="O339" s="9"/>
       <c r="P339" s="9"/>
     </row>
-    <row r="340" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>695</v>
       </c>
@@ -87503,7 +87511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>697</v>
       </c>
@@ -87540,7 +87548,7 @@
       <c r="P342" s="9"/>
       <c r="Q342"/>
     </row>
-    <row r="343" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>698</v>
       </c>
@@ -87577,7 +87585,7 @@
       <c r="P343" s="9"/>
       <c r="Q343"/>
     </row>
-    <row r="344" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>699</v>
       </c>
@@ -87729,7 +87737,7 @@
       <c r="O347" s="9"/>
       <c r="P347" s="9"/>
     </row>
-    <row r="348" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>704</v>
       </c>
@@ -87838,7 +87846,7 @@
       <c r="O350" s="9"/>
       <c r="P350" s="9"/>
     </row>
-    <row r="351" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>708</v>
       </c>
@@ -87875,7 +87883,7 @@
       <c r="P351" s="9"/>
       <c r="Q351"/>
     </row>
-    <row r="352" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>709</v>
       </c>
@@ -87984,7 +87992,7 @@
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
     </row>
-    <row r="355" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>712</v>
       </c>
@@ -88132,7 +88140,7 @@
       <c r="O358" s="9"/>
       <c r="P358" s="9"/>
     </row>
-    <row r="359" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>842</v>
       </c>
@@ -88213,7 +88221,7 @@
       </c>
       <c r="Q360"/>
     </row>
-    <row r="361" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>1056</v>
       </c>
@@ -88404,7 +88412,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="366" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>724</v>
       </c>
@@ -88572,7 +88580,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="371" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>945</v>
       </c>
@@ -88609,7 +88617,7 @@
       <c r="P371" s="7"/>
       <c r="Q371"/>
     </row>
-    <row r="372" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>854</v>
       </c>
@@ -88894,6 +88902,31 @@
       <filters>
         <filter val="2"/>
         <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Cardiovascular Diseases"/>
+        <filter val="Chronic Respiratory diseases"/>
+        <filter val="Diabetes mellitus"/>
+        <filter val="Enteric Infections"/>
+        <filter val="Exposure to forces of nature"/>
+        <filter val="HIV/ AIDS / STD"/>
+        <filter val="Injuries (excl. Poisonings)"/>
+        <filter val="Interpersonal Violence"/>
+        <filter val="Kidney disease (excl. Diabetes)"/>
+        <filter val="Malaria"/>
+        <filter val="Maternal disorders"/>
+        <filter val="Neglected Tropical Diseases (excl. Malaria)"/>
+        <filter val="Neonatal disorders"/>
+        <filter val="Neoplasms"/>
+        <filter val="Other Communicable"/>
+        <filter val="Other Non-Communicable"/>
+        <filter val="Poisonings"/>
+        <filter val="Respiratory Infections (excl. Tuberculosis)"/>
+        <filter val="Self-harm"/>
+        <filter val="Transport Injuries"/>
+        <filter val="Tuberculosis"/>
       </filters>
     </filterColumn>
   </autoFilter>
